--- a/results/2017年第2季.xlsx
+++ b/results/2017年第2季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,7576 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>204</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>860,196</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>724,930</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>275,689</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>242,509</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>251,841</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-95,057</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>247,855</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1,645,566</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,251,310</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4,765,696</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5,871,113</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1,761,853</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,072,022</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>979,408</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1,292,051</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-963,674</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>898,602</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>11,242,138</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>6,349,743</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>36,950,255</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14,014,891</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2,504,381</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,300,334</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>742,732</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3,516,125</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-1,027,701</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-2,218,233</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2,506,124</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>39,266,051</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>38,724,138</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>79,244,745</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>327</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10,492,493</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3,128,238</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,908,786</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1,591,289</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>710,625</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-331,831</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-46,182</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>559,643</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>12,556,921</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2,821,812</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>35,728,794</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>701</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>445,609</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>254,684</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>135,423</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>127,042</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>95,451</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-34,402</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-170,000</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>92,367</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>746,783</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>17,587</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2,518,686</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>99</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12,646,923</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,089,643</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>451,258</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>561,375</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-173,650</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-3,560,457</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>3,315,249</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-1,346,294</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>26,021,233</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,347,827</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>46,399,919</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-32,780</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-38,137</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-37,415</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>140,668</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-126,064</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>20,722</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-1.54</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-1.52</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>315,422</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,562,118</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3,819,727</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,421,784</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>995,169</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>727,365</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1,329,227</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-791,361</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-636,671</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>589,603</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>10,460,447</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>13,863,405</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>28,420,402</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,617,269</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>249,082</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91,333</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>97,098</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>140,711</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-45,706</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-152,454</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>98,632</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2,451,312</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>958,211</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>4,435,160</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,326,936</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>902,592</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>630,955</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>529,078</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,390,735</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-788,472</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-592,267</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>874,591</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>10,371,511</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>13,750,365</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>34,115,919</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,796,196</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>784,835</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>402,244</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>326,138</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>471,725</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-376,459</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-57,800</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>66,668</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>5,437,680</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>4,825,854</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>11,717,051</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7,483,752</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>653,102</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>194,186</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2,990,426</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>920,870</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2,473,201</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-318,697</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>449,610</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>24,206,753</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>15,860,491</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>80,030,947</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>178,068</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30,297</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-35,296</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-26,426</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-46,832</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-2,271</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-558</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-48,974</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>452,824</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-3.24</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-2.07</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>383,110</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,251,884</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>207</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16,335,571</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6,128,010</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>430,201</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>447,473</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>164,708</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-378,205</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-26,528</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-224,893</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>22,364,202</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>10,072,761</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>26,962,949</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>34.45</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>372,062</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25,435</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-85,011</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-56,192</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-99,774</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-5,811</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>128,596</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-119,263</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2,433,848</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>-4.47</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>-1.29</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2,030,900</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>3,716,735</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>-0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,868,509</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>531,233</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>328,844</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>238,628</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>830,955</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-593,815</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>156,661</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>189,507</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>5,651,642</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>8,857,018</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>16,034,275</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,782,769</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>934,795</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>313,963</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>249,023</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>311,586</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-170,268</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-138,706</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>258,019</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>7,081,919</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1,862,536</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>13,151,207</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>870,030</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>218,407</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20,973</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>21,967</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>39,079</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>19,460</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2,130</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>20,722</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>528,816</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>254,470</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1,272,331</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>715,838</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-248,753</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-358,137</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-361,086</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>47,069</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-67,314</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-201,744</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>6,640</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3,810,553</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-7.68</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>-4.13</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>5,750,462</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>8,333,827</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-1.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>54</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>426,393</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>144,921</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>67,799</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>57,622</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-49,412</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-42,771</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-11,095</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-58,610</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>806,244</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>665,092</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2,096,586</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>378</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1,964,224</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>409,000</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>255,237</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>174,102</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>266,362</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-149,105</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-1,098,853</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>130,980</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>5,113,768</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2,278,417</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>7,963,838</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>63,745</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>39,022</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-13,708</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-14,035</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-11,516</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-1,798</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-2,263</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-13,314</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>87,594</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-3.23</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-2.58</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>126,163</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>515,393</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>476,484</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>147,744</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96,993</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>82,407</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>106,168</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-17,111</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>10,833</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>88,102</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>729,312</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,199,461</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3,366,807</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>103</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,107,580</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>455,479</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79,762</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>54,625</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>53,197</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-144,859</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>97,390</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-144,379</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3,569,546</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>3,082,502</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>7,358,196</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4,743,964</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>512,228</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>151,257</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>155,825</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1,728,176</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-213,156</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-831,740</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1,713,728</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>4,244,274</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,886,438</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>8,566,024</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>7,609,939</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>857,629</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>294,720</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>309,868</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-1,287,294</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-159,899</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1,598,972</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-1,513,534</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>16,616,497</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>5,975,731</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>25,627,140</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>41</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4,607</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4,019</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-56,480</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-68,655</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-4,383</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-45,460</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2,750</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-5,597</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>83,998</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-8.52</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>-7.80</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>16,750</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>864,423</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5,486,168</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-1,066,550</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-1,189,545</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-1,160,598</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2,475,561</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-61,444</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-2,461,326</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2,394,045</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>14,590,649</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-11.43</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>-4.39</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,555,617</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>24,164,357</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-1.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>102</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,634,038</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>439,126</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>230,482</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>172,641</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>171,718</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-189,493</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-13,852</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>171,653</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1,530,456</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>948,356</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>4,092,243</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>944,422</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>223,752</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94,723</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>71,621</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>34,839</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-114,073</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>24,541</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1,676,533</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>170,372</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>3,145,175</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8,506,923</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,690,030</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>385,506</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>465,718</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-225,370</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-646,899</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>503,893</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-465,029</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>23,842,498</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11,299,300</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>39,107,445</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>161,941</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14,550</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>6,023</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>21,980</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>39,524</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-11,874</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>38,402</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>231,375</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>366,638</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,804,939</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>150,123</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>16,016</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>499,209</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>84,864,916</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8,780,066</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>5,203,833</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4,005,105</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>8,723,807</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-11,124,905</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-1,939,092</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>3,980,155</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>363,419,628</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>421,287,134</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>685,954,263</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,914,348</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19,625</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-42,754</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-82,926</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-269,391</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-341,287</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>603,621</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-592,108</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>13,765,661</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-2.48</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>12,927,806</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>17,069,073</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>767,861</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>51,059</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>36,951</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>50,037</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>33,700</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-8,563</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-10,911</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>25,204</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,885,864</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>911,060</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>5,378,445</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>421,932</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>234,378</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>51,418</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>42,514</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>21,334</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-12,588</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-1,380</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>9,800</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>731,258</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>778,313</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,540,728</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>574,468</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>140,899</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84,348</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>58,221</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>147,891</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-232,509</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>147,683</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4,078,075</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>22,907</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>6,376,687</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>213,736</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>33,494</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2,202</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>13,725</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-20,532</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>16,831</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-4,879</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-25,844</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>211,898</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>241,957</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,090,566</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>411,503</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>95,688</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>46,595</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>37,043</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>17,709</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-16,147</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-35,222</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>10,323</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>321,868</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>247,968</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,681,690</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>213,617</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>56,018</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>-27,334</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-8,232</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>3,557</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>14,005</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>48,949</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>-37,392</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1,076,766</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>-1.07</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>954,278</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1,820,674</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>209,546</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-5,494</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-85,478</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-71,073</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>645,948</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-258,081</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>31,915</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>556,620</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1,652,421</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-5.57</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-2.63</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>510,621</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>2,904,819</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>454,056</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>89,699</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>9,605</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-4,114</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-63,015</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-47,497</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>85,961</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-143,971</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,479,315</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>840,048</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2,793,389</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4,312,569</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,295,281</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>49,160</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-27,289</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-46,209</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-99,067</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-85,496</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-311,365</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>26,913,298</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-0.39</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>11,642,153</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>34,015,009</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>930,368</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>303,634</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-26,815</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-31,976</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-81,633</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-106,853</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>34,920</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-161,742</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>5,773,847</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>-0.54</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2,961,873</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>11,727,111</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>100,103,678</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>33,279,696</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>6,317,746</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7,143,660</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>16,947,859</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>4,165,922</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-3,939,422</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>12,887,307</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>224,149,499</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>143,477,164</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>369,434,330</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2,357,953</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>58,768</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-359,253</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-324,241</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>401,682</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>38,797</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>14,232</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>138,039</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>8,094,339</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-1.97</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-1.15</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>12,823,267</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>24,422,762</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2,239,678</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>52,022</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-294,741</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-7,324</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-33,462</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>570,664</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-443,124</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>-59,288</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>7,001,945</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>13,621,248</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>27,497,694</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>84,508,950</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>21,045,112</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>15,823,226</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>12,118,217</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>22,402,497</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-2,791,150</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-128,624</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>18,047,515</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>134,052,165</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>195,765,186</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>383,083,052</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>12,625,502</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5,543,926</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>4,166,792</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6,496,570</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>3,013,090</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-706,888</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-6,900</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>-9,150,527</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>69,210,123</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>83,465,114</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>166,747,214</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>564,387</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>130,843</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>52,492</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-15,674</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>25,677</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-115,872</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-191,802</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>24,615</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>7,884,092</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2,641,719</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>9,517,421</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>922,412,465</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>62,774,423</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>24,951,394</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>14,918,776</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>3,631,697</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>11,945,714</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>32,937,376</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>-7,059,968</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,324,717,948</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>294,006,017</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2,457,577,796</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5,833,978</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>476,932</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>222,084</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>281,027</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-1,018,805</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>660,810</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>622,545</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-1,030,061</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>14,889,435</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,074,088</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>25,641,283</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>9,353,827</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4,754,867</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>536,889</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>132,948</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>895,061</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-1,574,691</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1,737,652</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>246,753</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>63,113,880</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>44,175,606</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>98,780,776</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2,032,222</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>929,439</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>590,986</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1,388,909</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>58,818</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1,730,361</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>284,824</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>51,004</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>25,398,043</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1,662,216</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>62,461,200</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>159,199</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>32,124</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>17,709</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>29,110</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>6,539</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-1,023</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>5,516</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>268,358</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>384,639</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,501,825</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9,869,718</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1,721,679</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>357,321</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>279,892</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-575,869</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-916,928</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>585,572</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>-1,452,278</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>32,357,140</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>18,085,715</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>52,057,735</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>28,368,875</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6,438,123</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2,156,728</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1,740,695</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>473,132</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-4,555,989</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>6,350,598</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-4,202,492</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>99,526,806</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>103,614,726</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>179,548,658</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>108</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>55,671,141</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>20,593,177</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>12,319,383</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10,778,115</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>15,920,334</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-5,521,359</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-166,981</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>10,841,919</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>105,982,956</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>283,306,433</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>458,502,390</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5,091,771</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>757,589</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>173,211</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>146,559</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>392,311</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-1,389,069</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-5,497</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>374,459</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>5,802,189</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2,163,401</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>14,112,624</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>32,642</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>20,338</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-5,985</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>38,309</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-136,689</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-450,717</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>48,873</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-136,689</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>10,721,779</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>18,590,026</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>138,917,332</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>15,930,869</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>13,296,494</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>12,055,753</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>5,925,841</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-1,588,627</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-38,547,657</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>4,415,164</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>151,180,938</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>109,613,443</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>439,954,230</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,490,900</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>411,149</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>45,287</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>59,512</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>112,737</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-20,843</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-121,988</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>74,686</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4,507,510</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,088,701</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>9,944,352</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>54</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1,577,430</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>747,790</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>167,723</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>57,524</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>153,442</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-693,868</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>362,595</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>124,956</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>7,755,654</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1,901,724</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>15,641,501</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,963,378</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,476,556</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>629,816</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>610,464</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>974,930</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-1,218,866</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>123,690</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>-140,953</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>16,718,011</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>19,228,689</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>36,449,587</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>8,861,449</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,531,337</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>641,517</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,830,173</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-163,835</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-40,029</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-271,384</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>11,850,289</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,473,955</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>29,545,329</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>985,989</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>283,045</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>132,071</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>136,988</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>41,060</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-905,407</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>807,131</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-940,093</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>5,519,618</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>7,626,234</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>10,835,642</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>15</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>37,704,038</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3,228,364</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2,213,189</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2,898,020</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>3,228,048</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-469,705</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1,493,664</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2,545,850</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>134,409,531</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>93,211,220</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>189,504,609</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>811,100</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-138,979</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-246,654</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-432,928</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>13,126</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>139,793</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-75,587</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-78,319</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>23,179,842</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-5.95</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>-1.02</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>28,186,047</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>30,249,184</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>52,908,263</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11,550,171</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2,846,066</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3,089,039</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>7,965,289</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-6,867,916</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>10,668,591</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2,648,797</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>271,984,564</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>149,374,917</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>517,426,342</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>204,201</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>24,991</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>4,883</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6,554</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>29,189</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>180,360</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-137,302</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-8,250</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,771,325</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,690,411</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,805,337</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>567,486</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>194,474</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88,180</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>63,939</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>21,637</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-7,785</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-5,140</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>11,461</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>494,819</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>669,800</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1,976,053</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>37,537,881</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6,739,390</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1,667,565</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1,477,631</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>14,817,293</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-8,105,149</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>706,718</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>6,770,052</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>172,621,415</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>212,772,120</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>385,817,316</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,403,945</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>471,317</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>274,697</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>201,763</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>170,474</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-259,273</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>116,708</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>-109,392</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>5,338,518</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,429,464</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10,552,493</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>311,222</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>79,884</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>31,876</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8,579</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>53,908</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-104,974</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-5,119</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-6,020</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>315,003</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>932,268</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>3,884,037</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4,842,693</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,521,034</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>957,924</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>588,444</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1,925,965</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-1,486,500</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-528,465</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>580,949</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>18,924,258</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>27,589,062</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>41,738,452</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>34.45</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>80,446,026</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2,849,610</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>864,934</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,402,554</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-7,126,725</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-781,654</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>3,631,825</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-7,230,590</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>85,429,744</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,643,692</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>128,408,316</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4,876,883</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>743,292</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>117,137</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>34,005</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>907,208</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-103,326</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-327,685</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>793,092</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>5,011,631</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,753,220</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>9,592,381</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>10,115,108</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>932,185</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>344,039</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>305,438</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-519,196</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-12,542</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-40,842</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>-533,103</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>13,940,643</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2,263,128</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>24,695,823</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>7,085,907</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>270,360</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>35,873</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8,934</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>685,047</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-531</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-500,847</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>683,124</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>8,069,715</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>309,646</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10,198,813</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>749,498</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>333,106</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>117,635</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>78,401</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>144,541</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-102,898</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-64,505</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>116,607</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1,856,610</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>5,537,704</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>11,254,818</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>760,454</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>176,596</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-102,866</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-112,805</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>80,022</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-41,728</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-6,261</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>20,324</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>5,633,001</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-2.56</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>7,194,261</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>9,982,454</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>158</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,668,305</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>560,959</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>298,575</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>259,585</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>53,923</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-12,812</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>20,637</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>20,240</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>4,453,373</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3,143,545</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7,682,503</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>293,506</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>268,199</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-55,892</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-95,663</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>207,820</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-184,243</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>72,918</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>66,138</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>5,280,206</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-3.97</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-0.80</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>5,994,676</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>7,645,094</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>14,143,562</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3,167,777</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,404,399</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1,261,313</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1,016,055</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-610,051</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-900,293</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>385,348</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>17,024,479</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>13,871,408</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>29,959,321</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>13,432,350</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2,742,237</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>919,770</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>678,716</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>3,199,067</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-685,627</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-4,178,201</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2,828,939</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>24,025,592</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>7,120,905</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>43,230,019</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>13,073,245</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3,286,558</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1,009,304</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1,213,944</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1,598,095</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-1,479,724</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-1,377,226</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1,375,629</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>36,645,050</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>18,139,099</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>93,218,221</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>787,697</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>109,981</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>15,636</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>32,549</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-237,554</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>41,843</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>137,517</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>-244,356</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,376,560</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>969,242</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>5,033,737</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5,556,123</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1,010,092</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>288,880</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>298,748</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>545,498</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-234,853</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1,375</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>377,580</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>14,866,189</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>6,100,087</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>36,612,103</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>213,780,026</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7,808,413</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>892,253</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>417,234</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>13,595,280</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-389,937</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-18,844,348</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>13,053,441</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>218,187,322</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>19,093,153</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>323,333,104</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>289</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>97,318,245</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>11,880,244</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1,919,137</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2,075,944</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-5,762,019</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-375,314</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2,218,802</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>-6,406,691</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>179,916,706</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>14,594,026</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>356,277,699</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>32,897,546</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4,159,766</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>969,438</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1,425,881</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-1,227,882</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-2,360,479</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>4,802,866</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>-1,863,453</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>70,874,398</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>18,873,244</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>103,675,609</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>11,406,108</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4,400,710</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,753,133</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,722,572</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1,724,151</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-1,954,210</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-105,956</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>1,619,691</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>15,995,499</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>9,997,910</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>40,533,452</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>39</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>13,963,758</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2,029,406</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>336,509</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>550,924</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1,160,633</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-156,710</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-64,345</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>1,078,766</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>12,892,603</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>3,891,947</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>34,902,374</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>162,055</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>63,691</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>18,635</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>23,718</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>39,512</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-57,896</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>25,851</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>39,453</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>388,643</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>6,134</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,070,760</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,718,764</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>232,335</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83,473</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>73,111</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>219,896</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>5,023</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-479,000</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>219,829</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,426,289</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>451,727</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>5,449,586</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>74</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>251,416</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>198,142</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-56,386</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-55,706</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>12,324</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-3,074</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>11,893</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>226,572</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>-3.78</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>-3.31</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>38,895</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1,673,695</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>-0.50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
